--- a/Mifos Automation Excels/Client/2482-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2482-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Newcreateloan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -552,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D3:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1351,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1383,9 +1383,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>4697</v>
+        <v>3807</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1414,10 +1414,12 @@
       <c r="J2" s="10">
         <v>9135.4599999999991</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>4696</v>
+        <v>3727</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1446,10 +1448,12 @@
       <c r="J3" s="10">
         <v>4135.46</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>4695</v>
+        <v>3725</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1478,6 +1482,8 @@
       <c r="J4" s="9">
         <v>5000</v>
       </c>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/2482-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2482-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Newcreateloan2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -124,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,6 +264,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -306,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +347,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,10 +759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,12 +780,13 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -783,17 +826,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -819,8 +863,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8">
@@ -846,8 +891,9 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -885,14 +931,15 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -928,14 +975,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -971,14 +1019,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1014,14 +1063,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1057,14 +1107,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1100,14 +1151,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1143,14 +1195,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1186,14 +1239,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1229,14 +1283,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1272,14 +1327,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1315,10 +1371,11 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>964.55</v>
       </c>
     </row>
@@ -1332,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
